--- a/auto/new_data/8_競品分析_syntec.xlsx
+++ b/auto/new_data/8_競品分析_syntec.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,6 +446,11 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>website</t>
         </is>
       </c>
@@ -463,6 +468,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>2024-09-07T10:30:54.050Z</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>https://www.reddit.com/r/Machinists/comments/1fb3vxp/who_can_develop_a_post_processor_for_swiss_type/</t>
         </is>
       </c>
@@ -480,6 +490,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>2024-02-23T08:47:47.042Z</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>https://www.reddit.com/r/Machinists/comments/1axvuu8/siemens_or_syntec_controller/</t>
         </is>
       </c>
@@ -497,6 +512,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>2024-05-21T16:01:20.625Z</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>https://www.reddit.com/r/Machinists/comments/1cxbenm/5th_axis_option_for_syil_x7_syntec/</t>
         </is>
       </c>
@@ -514,6 +534,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>2022-08-10T23:49:11.402Z</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>https://www.reddit.com/r/Machinists/comments/wlcl14/syntec_4th_axis_fusion360/</t>
         </is>
       </c>
@@ -531,6 +556,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>2020-03-06T15:00:03.085Z</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>https://www.reddit.com/r/Machinists/comments/feemik/anyone_here_run_a_syntec_6md/</t>
         </is>
       </c>
@@ -548,6 +578,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>2020-05-24T06:05:25.255Z</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>https://www.reddit.com/r/Machinists/comments/gpklem/cnc_router_z_axis_assistant_needed_to_understand/</t>
         </is>
       </c>
@@ -565,24 +600,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>2023-04-28T11:52:08.663Z</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>https://www.reddit.com/r/Machinists/comments/131pgu6/air_blow_m_code/</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Machinists</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Anyone own a Syil X7?</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>https://www.reddit.com/r/Machinists/comments/131q1tf/does_anyone_here_use_fusion_360_if_so_how_do_you/</t>
         </is>
       </c>
     </row>

--- a/auto/new_data/8_競品分析_syntec.xlsx
+++ b/auto/new_data/8_競品分析_syntec.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,7 +507,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Syntec 4th axis &amp; Fusion360</t>
+          <t>CNC Router Z Axis. assistant needed to understand the numbers. G54</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -529,17 +529,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Anyone here run a Syntec 6MD?</t>
+          <t>Syntec 4th axis &amp; Fusion360</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2022-08-10T23:49:11.402Z</t>
+          <t>2020-05-24T06:05:25.255Z</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/wlcl14/syntec_4th_axis_fusion360/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/gpklem/cnc_router_z_axis_assistant_needed_to_understand/</t>
         </is>
       </c>
     </row>
@@ -551,17 +551,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CNC Router Z Axis. assistant needed to understand the numbers. G54</t>
+          <t>Air blow m code.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2020-03-06T15:00:03.085Z</t>
+          <t>2022-08-10T23:49:11.402Z</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/feemik/anyone_here_run_a_syntec_6md/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/wlcl14/syntec_4th_axis_fusion360/</t>
         </is>
       </c>
     </row>
@@ -573,17 +573,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Air blow m code.</t>
+          <t>Anyone here run a Syntec 6MD?</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2020-05-24T06:05:25.255Z</t>
+          <t>2023-04-28T11:52:08.663Z</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/gpklem/cnc_router_z_axis_assistant_needed_to_understand/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/131pgu6/air_blow_m_code/</t>
         </is>
       </c>
     </row>
@@ -600,12 +600,34 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2023-04-28T11:52:08.663Z</t>
+          <t>2020-03-06T15:00:03.085Z</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.reddit.com/r/Machinists/comments/131pgu6/air_blow_m_code/</t>
+          <t>https://www.reddit.com/r/Machinists/comments/feemik/anyone_here_run_a_syntec_6md/</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Machinists</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Anyone own a Syil X7?</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2023-04-28T12:17:42.321Z</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://www.reddit.com/r/Machinists/comments/131q1tf/does_anyone_here_use_fusion_360_if_so_how_do_you/</t>
         </is>
       </c>
     </row>
